--- a/MainTop/07.12.2024/печать.xlsx
+++ b/MainTop/07.12.2024/печать.xlsx
@@ -152,7 +152,7 @@
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -175,7 +175,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="ALS2" s="2"/>
       <c r="ALT2" s="2"/>
@@ -201,7 +201,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -209,7 +209,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1048405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
